--- a/data/trans_orig/P19F$mañana-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19F$mañana-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>103163</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89327</v>
+        <v>87851</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119315</v>
+        <v>118865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4503516990196826</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3899508577430174</v>
+        <v>0.3835061328643021</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5208596150026659</v>
+        <v>0.5188945682954202</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>81</v>
@@ -762,19 +762,19 @@
         <v>81750</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68939</v>
+        <v>68223</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93878</v>
+        <v>95265</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.45857982195735</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3867169616228188</v>
+        <v>0.382699323041008</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5266115950574046</v>
+        <v>0.5343942195389956</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>179</v>
@@ -783,19 +783,19 @@
         <v>184914</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165895</v>
+        <v>164740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>205445</v>
+        <v>203607</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4539526386809152</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4072621287670876</v>
+        <v>0.4044266908347582</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5043574781562072</v>
+        <v>0.4998437494182758</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>181532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167584</v>
+        <v>167853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>194008</v>
+        <v>192093</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7924638623276746</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7315753239684952</v>
+        <v>0.7327475014026743</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8469284736063195</v>
+        <v>0.8385689165467731</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>156</v>
@@ -833,19 +833,19 @@
         <v>153870</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>144000</v>
+        <v>144688</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>161470</v>
+        <v>162429</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8631405607183196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8077715835604419</v>
+        <v>0.8116321007020654</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.905769194791394</v>
+        <v>0.9111521587113575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>328</v>
@@ -854,19 +854,19 @@
         <v>335402</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>319837</v>
+        <v>318917</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>349894</v>
+        <v>350184</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8233946746511955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7851814053211773</v>
+        <v>0.7829250436707865</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.858969735695014</v>
+        <v>0.859682467179804</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>72107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>58682</v>
+        <v>58987</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86638</v>
+        <v>86906</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3147759462954299</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2561725365234367</v>
+        <v>0.2575026873699016</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3782122551424981</v>
+        <v>0.3793827324653258</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>67</v>
@@ -904,19 +904,19 @@
         <v>64877</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53446</v>
+        <v>52728</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>77240</v>
+        <v>78033</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3639302942504665</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2998048380844496</v>
+        <v>0.2957779856192967</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4332806075319313</v>
+        <v>0.4377296375900553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>136</v>
@@ -925,19 +925,19 @@
         <v>136984</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>117193</v>
+        <v>120703</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>156273</v>
+        <v>156855</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3362877591857095</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2877015307671187</v>
+        <v>0.2963202117714082</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3836424900017072</v>
+        <v>0.3850699398405757</v>
       </c>
     </row>
     <row r="7">
@@ -958,19 +958,19 @@
         <v>141412</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>123948</v>
+        <v>122024</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>159938</v>
+        <v>160899</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4308281037648611</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3776203923530412</v>
+        <v>0.3717597646390032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4872669937033463</v>
+        <v>0.4901951491419197</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -979,19 +979,19 @@
         <v>114195</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>98380</v>
+        <v>98871</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131716</v>
+        <v>130588</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4201510878260992</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3619644791225144</v>
+        <v>0.3637719704696224</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4846174415968447</v>
+        <v>0.4804665298861122</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>251</v>
@@ -1000,19 +1000,19 @@
         <v>255607</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>231754</v>
+        <v>232602</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>279089</v>
+        <v>281706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4259917440018384</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3862387228953236</v>
+        <v>0.3876512146388768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4651265631466721</v>
+        <v>0.4694874839777244</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>258606</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>243445</v>
+        <v>241031</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>272625</v>
+        <v>271468</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7878698486344383</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7416825854275498</v>
+        <v>0.7343256930374915</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8305814039383765</v>
+        <v>0.8270555903596546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>217</v>
@@ -1050,19 +1050,19 @@
         <v>208255</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>194500</v>
+        <v>194142</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>221563</v>
+        <v>221025</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7662227042436828</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7156140817342747</v>
+        <v>0.7142991130718199</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.815188222746118</v>
+        <v>0.8132082356222539</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>466</v>
@@ -1071,19 +1071,19 @@
         <v>466860</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>444249</v>
+        <v>447446</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>485464</v>
+        <v>485543</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7780643581569245</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7403801744161134</v>
+        <v>0.7457089128491412</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8090690505859025</v>
+        <v>0.8092006292313083</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>106256</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>89334</v>
+        <v>90613</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>122012</v>
+        <v>122606</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3237201981561499</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2721656889805683</v>
+        <v>0.2760625499752988</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3717215342511105</v>
+        <v>0.3735333758647233</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>107</v>
@@ -1121,19 +1121,19 @@
         <v>102399</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>88107</v>
+        <v>86796</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>117608</v>
+        <v>117136</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3767508833861594</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3241672620029241</v>
+        <v>0.3193459252453334</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4327093952437724</v>
+        <v>0.4309752643587024</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>212</v>
@@ -1142,19 +1142,19 @@
         <v>208655</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>187426</v>
+        <v>187283</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>232161</v>
+        <v>232594</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3477414671814053</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3123617974872261</v>
+        <v>0.3121234619744704</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3869166551432645</v>
+        <v>0.3876391175622442</v>
       </c>
     </row>
     <row r="10">
@@ -1175,19 +1175,19 @@
         <v>131867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111734</v>
+        <v>111791</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148032</v>
+        <v>150097</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.379382775752466</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3214618216225667</v>
+        <v>0.3216241974672241</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4258901396208341</v>
+        <v>0.43183067846746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -1196,19 +1196,19 @@
         <v>145061</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128922</v>
+        <v>127388</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>163925</v>
+        <v>162366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4451244914084817</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3956015112531982</v>
+        <v>0.3908943902318352</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5030074744742415</v>
+        <v>0.4982244777686092</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>275</v>
@@ -1217,19 +1217,19 @@
         <v>276927</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>251850</v>
+        <v>250437</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301366</v>
+        <v>301145</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.411194836282199</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3739592710183532</v>
+        <v>0.3718605609024825</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4474827596221507</v>
+        <v>0.4471536474460484</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>274397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258501</v>
+        <v>258826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>289753</v>
+        <v>288668</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.789445239508318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7437119337859208</v>
+        <v>0.7446482490532366</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8336236919136858</v>
+        <v>0.8305020834166918</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>267</v>
@@ -1267,19 +1267,19 @@
         <v>267125</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>252371</v>
+        <v>253232</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>278444</v>
+        <v>279812</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8196823635288336</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7744080777582429</v>
+        <v>0.7770509168500312</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8544126643186416</v>
+        <v>0.8586107307478017</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>527</v>
@@ -1288,19 +1288,19 @@
         <v>541522</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>517859</v>
+        <v>518623</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>560778</v>
+        <v>561236</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8040768202327809</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7689412238945166</v>
+        <v>0.7700757033362111</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8326696764113241</v>
+        <v>0.8333492321722682</v>
       </c>
     </row>
     <row r="12">
@@ -1317,19 +1317,19 @@
         <v>124429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>107371</v>
+        <v>108453</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>142866</v>
+        <v>143408</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3579841734015505</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3089074399852386</v>
+        <v>0.3120205934402438</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4110293873409246</v>
+        <v>0.4125870918188815</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -1338,19 +1338,19 @@
         <v>104232</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>88665</v>
+        <v>87748</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>120742</v>
+        <v>119808</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3198404552484154</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2720723733538457</v>
+        <v>0.2692576109378871</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3705014183521844</v>
+        <v>0.3676358792106583</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>224</v>
@@ -1359,19 +1359,19 @@
         <v>228661</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>204248</v>
+        <v>203720</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>254866</v>
+        <v>254227</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3395266345526146</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3032769460912932</v>
+        <v>0.3024935709584767</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3784368205599041</v>
+        <v>0.3774886039035729</v>
       </c>
     </row>
     <row r="13">
@@ -1392,19 +1392,19 @@
         <v>129789</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>109119</v>
+        <v>110686</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>149125</v>
+        <v>148215</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3822805689146496</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3213993342304716</v>
+        <v>0.3260139713885503</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4392334295062497</v>
+        <v>0.4365525169005784</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>150</v>
@@ -1413,19 +1413,19 @@
         <v>162478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>142918</v>
+        <v>143868</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>180682</v>
+        <v>181099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4908261849724977</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4317364547642467</v>
+        <v>0.4346058872843696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5458176732043747</v>
+        <v>0.5470781927873795</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>270</v>
@@ -1434,19 +1434,19 @@
         <v>292267</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>266448</v>
+        <v>266902</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>319945</v>
+        <v>318182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4358668078233139</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3973626137192926</v>
+        <v>0.3980397934278718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4771438244594318</v>
+        <v>0.4745141508771272</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>252703</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235139</v>
+        <v>235105</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>268988</v>
+        <v>270064</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7443109544557689</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.692578859947394</v>
+        <v>0.6924780868957838</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7922780912362594</v>
+        <v>0.7954474413722087</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>249</v>
@@ -1484,19 +1484,19 @@
         <v>267387</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>251382</v>
+        <v>252315</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>280310</v>
+        <v>280232</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8077438525237817</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7593932376311362</v>
+        <v>0.7622113882405641</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8467798677688578</v>
+        <v>0.8465455299895579</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>483</v>
@@ -1505,19 +1505,19 @@
         <v>520090</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>497081</v>
+        <v>497190</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>541964</v>
+        <v>543330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7756261798328118</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7413117890177484</v>
+        <v>0.7414742299424979</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8082483459582095</v>
+        <v>0.8102845070592354</v>
       </c>
     </row>
     <row r="15">
@@ -1534,19 +1534,19 @@
         <v>116490</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>99455</v>
+        <v>99839</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>135470</v>
+        <v>136056</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3431104004697671</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.292936500715843</v>
+        <v>0.2940662467259516</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3990146902534297</v>
+        <v>0.4007410748918444</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>97</v>
@@ -1555,19 +1555,19 @@
         <v>101846</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>84772</v>
+        <v>85963</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>118867</v>
+        <v>120277</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3076642241796696</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2560867552264036</v>
+        <v>0.2596841156309923</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3590811830498683</v>
+        <v>0.3633406929254293</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>200</v>
@@ -1576,19 +1576,19 @@
         <v>218336</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>192943</v>
+        <v>196367</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>244687</v>
+        <v>246610</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3256115152999826</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2877414799774158</v>
+        <v>0.2928474842818355</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3649092109174362</v>
+        <v>0.3677774835891531</v>
       </c>
     </row>
     <row r="16">
@@ -1609,19 +1609,19 @@
         <v>102673</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87382</v>
+        <v>87425</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>118891</v>
+        <v>117598</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4362872805268359</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3713116086684116</v>
+        <v>0.3714952480698339</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5052026720594769</v>
+        <v>0.4997085236988426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -1630,19 +1630,19 @@
         <v>128364</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>112418</v>
+        <v>112170</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>146289</v>
+        <v>147329</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4884172952122683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4277451571825441</v>
+        <v>0.4267999413016781</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5566210317551431</v>
+        <v>0.5605771531687255</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>206</v>
@@ -1651,19 +1651,19 @@
         <v>231037</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>210651</v>
+        <v>209234</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>255325</v>
+        <v>257185</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4637902167246955</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4228673962959446</v>
+        <v>0.4200211509457285</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5125460101679972</v>
+        <v>0.516280749662011</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>175758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>161212</v>
+        <v>160406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>189095</v>
+        <v>188298</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7468456334336531</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6850327638265781</v>
+        <v>0.6816102967211493</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8035172416865529</v>
+        <v>0.8001288922123175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>180</v>
@@ -1701,19 +1701,19 @@
         <v>201978</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185674</v>
+        <v>187317</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>216084</v>
+        <v>216909</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.768515648932074</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7064798982340016</v>
+        <v>0.7127294438977269</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8221880693911103</v>
+        <v>0.8253262377116054</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>338</v>
@@ -1722,19 +1722,19 @@
         <v>377736</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>354982</v>
+        <v>355660</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>396003</v>
+        <v>395970</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.758278376302729</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7126006445045828</v>
+        <v>0.7139621369128859</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7949477241834613</v>
+        <v>0.7948804136505108</v>
       </c>
     </row>
     <row r="18">
@@ -1751,19 +1751,19 @@
         <v>63070</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>50096</v>
+        <v>51189</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>77805</v>
+        <v>78714</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2680021468662536</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.212873111387923</v>
+        <v>0.2175165261596057</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3306160435031975</v>
+        <v>0.3344776739745927</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>75</v>
@@ -1772,19 +1772,19 @@
         <v>86981</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>70311</v>
+        <v>71205</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>104751</v>
+        <v>103759</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3309560444998605</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2675289223485018</v>
+        <v>0.2709324044113699</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3985732095817868</v>
+        <v>0.3947970102332592</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>132</v>
@@ -1793,19 +1793,19 @@
         <v>150051</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>128457</v>
+        <v>131562</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>172485</v>
+        <v>172937</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3012155852370568</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2578685095402992</v>
+        <v>0.2641020651434297</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3462510203404656</v>
+        <v>0.3471577187709746</v>
       </c>
     </row>
     <row r="19">
@@ -1826,19 +1826,19 @@
         <v>65385</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52742</v>
+        <v>53488</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78645</v>
+        <v>78394</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3766500406361245</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3038224406632825</v>
+        <v>0.3081167224498298</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.453033973293995</v>
+        <v>0.4515897634306293</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -1847,19 +1847,19 @@
         <v>87566</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74481</v>
+        <v>73845</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>100830</v>
+        <v>101504</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.473829481821595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4030244959977584</v>
+        <v>0.399587662008025</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.54560330760637</v>
+        <v>0.5492539954076626</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>144</v>
@@ -1868,19 +1868,19 @@
         <v>152951</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>133819</v>
+        <v>133979</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>172931</v>
+        <v>170287</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4267593638772696</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3733777267677706</v>
+        <v>0.3738245141717494</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4825091935402976</v>
+        <v>0.4751309519968896</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>146216</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>134843</v>
+        <v>135455</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155810</v>
+        <v>155049</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8422777366949378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7767647038462431</v>
+        <v>0.7802877619329744</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8975415323915699</v>
+        <v>0.8931617482485085</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>142</v>
@@ -1918,19 +1918,19 @@
         <v>151060</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>139800</v>
+        <v>140592</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>160319</v>
+        <v>160689</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8174054821182849</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.756478755677637</v>
+        <v>0.760764298687154</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8675078894719819</v>
+        <v>0.8695112488269235</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>284</v>
@@ -1939,19 +1939,19 @@
         <v>297276</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>281886</v>
+        <v>281631</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>309848</v>
+        <v>310361</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8294526799842403</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7865134334612154</v>
+        <v>0.785800462492762</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8645313136755853</v>
+        <v>0.8659618570539342</v>
       </c>
     </row>
     <row r="21">
@@ -1968,19 +1968,19 @@
         <v>36463</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26844</v>
+        <v>26082</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47934</v>
+        <v>48110</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2100444924617851</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1546338371610015</v>
+        <v>0.1502462540206176</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2761210742300279</v>
+        <v>0.2771370087114959</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -1989,19 +1989,19 @@
         <v>46055</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34305</v>
+        <v>34815</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>58017</v>
+        <v>58120</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2492085358611513</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1856295059715633</v>
+        <v>0.1883913936909685</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3139401782536328</v>
+        <v>0.3144966718279301</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>80</v>
@@ -2010,19 +2010,19 @@
         <v>82518</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>67400</v>
+        <v>66848</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>99867</v>
+        <v>100170</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2302389254219789</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1880571913924323</v>
+        <v>0.1865167747602292</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2786454112288482</v>
+        <v>0.2794928787955283</v>
       </c>
     </row>
     <row r="22">
@@ -2043,19 +2043,19 @@
         <v>52713</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43576</v>
+        <v>43391</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>63330</v>
+        <v>62364</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4201617780336112</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3473298853321117</v>
+        <v>0.3458584626455847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.504783667971941</v>
+        <v>0.4970877834685141</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -2064,19 +2064,19 @@
         <v>63270</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49625</v>
+        <v>49516</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77569</v>
+        <v>77828</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3366534457136424</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2640493522615773</v>
+        <v>0.2634682521270659</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4127383034626323</v>
+        <v>0.4141141179861661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -2085,19 +2085,19 @@
         <v>115983</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>97219</v>
+        <v>97941</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>134245</v>
+        <v>134565</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3700835500131041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3102090821083044</v>
+        <v>0.3125127669535432</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4283536737647236</v>
+        <v>0.4293751281640623</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>93503</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>84016</v>
+        <v>83697</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>101385</v>
+        <v>101836</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7452858244077845</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6696694846919578</v>
+        <v>0.6671294329238769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8081160744181398</v>
+        <v>0.8117067628776985</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>121</v>
@@ -2135,19 +2135,19 @@
         <v>156182</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>142169</v>
+        <v>142516</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>167095</v>
+        <v>167259</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8310284747636515</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.756469281644163</v>
+        <v>0.7583155619421365</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8890962085271482</v>
+        <v>0.8899675365296076</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>231</v>
@@ -2156,19 +2156,19 @@
         <v>249685</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>233810</v>
+        <v>232961</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>264134</v>
+        <v>263016</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7967039269649225</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7460499802542107</v>
+        <v>0.743342643301369</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8428095270218234</v>
+        <v>0.8392421989515654</v>
       </c>
     </row>
     <row r="24">
@@ -2185,19 +2185,19 @@
         <v>28769</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20785</v>
+        <v>20863</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>38116</v>
+        <v>38555</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2293134699778806</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1656698278709039</v>
+        <v>0.1662932339109853</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3038146990510475</v>
+        <v>0.3073141901865729</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -2206,19 +2206,19 @@
         <v>52172</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>40247</v>
+        <v>39448</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>67227</v>
+        <v>68521</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2776000293949069</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2141518678658284</v>
+        <v>0.2099008387668109</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3577057969012551</v>
+        <v>0.364593631554935</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>73</v>
@@ -2227,19 +2227,19 @@
         <v>80941</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>66347</v>
+        <v>64283</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>98955</v>
+        <v>98061</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2582699257665849</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2117019373103076</v>
+        <v>0.2051181906931305</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3157506595860607</v>
+        <v>0.3128966928292168</v>
       </c>
     </row>
     <row r="25">
@@ -2260,19 +2260,19 @@
         <v>727003</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>685786</v>
+        <v>685406</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>773401</v>
+        <v>769217</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4087062509576784</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3855349886891102</v>
+        <v>0.3853216319728627</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4347903891678025</v>
+        <v>0.4324384805207487</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>733</v>
@@ -2281,19 +2281,19 @@
         <v>782683</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>740432</v>
+        <v>741802</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>826402</v>
+        <v>828108</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.449162664888907</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4249159802387004</v>
+        <v>0.4257020485064478</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.474251832940727</v>
+        <v>0.4752311125760187</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1434</v>
@@ -2302,19 +2302,19 @@
         <v>1509686</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1454010</v>
+        <v>1452226</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1569686</v>
+        <v>1569165</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4287262102817363</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4129149843315915</v>
+        <v>0.4124085013228516</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4457652931124786</v>
+        <v>0.4456171745550681</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>1382714</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1346725</v>
+        <v>1347474</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1415853</v>
+        <v>1418215</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7773341321941131</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7571018500452884</v>
+        <v>0.7575228244853339</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.795964182678795</v>
+        <v>0.7972921554714684</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1332</v>
@@ -2352,19 +2352,19 @@
         <v>1405857</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1369029</v>
+        <v>1370023</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1437754</v>
+        <v>1437991</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.806787011092903</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.785652177391016</v>
+        <v>0.7862228595760796</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8250918324150266</v>
+        <v>0.8252281387589043</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2657</v>
@@ -2373,19 +2373,19 @@
         <v>2788572</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2740041</v>
+        <v>2738174</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2839954</v>
+        <v>2834119</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7919089642227874</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7781268887045814</v>
+        <v>0.7775968563697757</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.806500545682925</v>
+        <v>0.8048436187965965</v>
       </c>
     </row>
     <row r="27">
@@ -2402,19 +2402,19 @@
         <v>547584</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>511617</v>
+        <v>502893</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>590559</v>
+        <v>584517</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3078406827149777</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2876208458826624</v>
+        <v>0.2827161440561978</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3320003318384314</v>
+        <v>0.3286034965603585</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>536</v>
@@ -2423,19 +2423,19 @@
         <v>558561</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>519621</v>
+        <v>517486</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>600095</v>
+        <v>600337</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3205444505344092</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2981978331198438</v>
+        <v>0.2969727946231023</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3443798131105271</v>
+        <v>0.3445186690514644</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1057</v>
@@ -2444,19 +2444,19 @@
         <v>1106145</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1051953</v>
+        <v>1051058</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1167356</v>
+        <v>1159856</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3141271745290971</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2987374664765745</v>
+        <v>0.2984832007950673</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3315101294988779</v>
+        <v>0.3293800994754632</v>
       </c>
     </row>
     <row r="28">
